--- a/script/DeepSTL_convert/autoware_docs/autoware_behavior_velocity_detection_area/result.xlsx
+++ b/script/DeepSTL_convert/autoware_docs/autoware_behavior_velocity_detection_area/result.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="13160"/>
+    <workbookView windowHeight="14780"/>
   </bookViews>
   <sheets>
     <sheet name="mtl" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="45">
   <si>
     <t>index</t>
   </si>
@@ -71,6 +71,9 @@
     <t>G(P → F(S)) captures the ongoing condition (G) that whenever a pointcloud is detected (P), it will eventually (F) lead to stop planning execution (S). This formula elegantly expresses the causal relationship between detection and action, while allowing for potential delays in execution.</t>
   </si>
   <si>
+    <t>{'section-id': 0, 'sentence-id': 0, 'sentence': 'If pointcloud is detected in a detection area defined on a map, the stop planning will be executed at the predetermined point.', 'tl': 'always ( pointcloud == adetectinedanedamap == amapstoplninexe )'}</t>
+  </si>
+  <si>
     <t>state transition pre-requirement</t>
   </si>
   <si>
@@ -83,6 +86,9 @@
     <t>G(D → A) represents that globally (G), if there's a detection area on the target lane (D), then the module is activated (A). This formula captures the immediate activation response to the presence of a detection area, emphasizing the reactive nature of the system.</t>
   </si>
   <si>
+    <t>{'section-id': 1, 'sentence-id': 0, 'sentence': 'This module is activated when there is a detection area on the target lane.', 'tl': 'always ( Thismodule == activated )'}</t>
+  </si>
+  <si>
     <t>Gets a detection area and stop line from map information and confirms if there is pointcloud in the detection area</t>
   </si>
   <si>
@@ -92,6 +98,9 @@
     <t>G(M → X(C)) expresses that globally (G), when map information is obtained (M), in the next state (X), confirmation of pointcloud (C) occurs. This formula captures the sequence of operations, highlighting the immediate follow-up action after obtaining map information.</t>
   </si>
   <si>
+    <t>{'section-id': 2, 'sentence-id': 0, 'sentence': '1.Gets a detection area and stop line from map information and confirms if there is pointcloud in the detection area', 'tl': 'always ( etsadetectionar == area and stoplinma == oinformationcS ) and concoin == detrmintointr )'}</t>
+  </si>
+  <si>
     <t>Inserts stop point l[m] in front of the stop line</t>
   </si>
   <si>
@@ -101,6 +110,9 @@
     <t>G(L → X(I)) indicates that globally (G), when a stop line is identified (L), in the next state (X), a stop point is inserted (I). This formula emphasizes the immediate action taken following the identification of a stop line, capturing the system's proactive planning behavior.</t>
   </si>
   <si>
+    <t>{'section-id': 2, 'sentence-id': 1, 'sentence': '2.Inserts stop point l[m] in front of the stop line', 'tl': 'always ( . 2 Insertstoplm &gt;= 0 and Insertstopl &lt;= frontstpline )'}</t>
+  </si>
+  <si>
     <t>Inserts a pass judge point to a point where the vehicle can stop with a max deceleration</t>
   </si>
   <si>
@@ -134,6 +146,9 @@
     <t>G(P → G(¬S)) indicates that globally (G), if the vehicle has passed the judge point (P), then globally from that point onwards (G), it will not stop (¬S). This formula effectively captures the 'point of no return' concept in the system's decision-making process.</t>
   </si>
   <si>
+    <t>{'section-id': 2, 'sentence-id': 4, 'sentence': '5.If the ego vehicle has passed the pass judge point already, it doesn’t stop and pass through.', 'tl': 'always ( egovehiclep == sasedpasjudgealreadlr ) and pastst == tsthrough )'}</t>
+  </si>
+  <si>
     <t>If the vehicle is stopped within `hold_stop_margin_distance` meters from stop point of the module (\_front_to_stop_line &lt; hold_stop_margin_distance), the module judges that the vehicle has already stopped for the module's stop point and plans to keep stopping current position even if the vehicle is stopped due to other factors.</t>
   </si>
   <si>
@@ -143,25 +158,10 @@
     <t>G((S ∧ W) → G(K)) represents that globally (G), if the vehicle is stopped (S) within the hold_stop_margin_distance (W), then globally from that point (G), it will keep stopping (K). This formula captures the system's decision to maintain a stop state once certain proximity conditions are met, regardless of the initial reason for stopping.</t>
   </si>
   <si>
+    <t>{'section-id': 3, 'sentence-id': 2, 'sentence': "If the vehicle is stopped within hold_stop_margin_distance meters from stop point of the module (\\_front_to_stop_line &lt; hold_stop_margin_distance), the module judges that the vehicle has already stopped for the module's stop point and plans to keep stopping current position even if the vehicle is stopped due to other factors.", 'tl': 'always ( evhiclestoped == stoped_stoped_stop_d_stargin_dstae == etancerste ) until ( not ( erstacersta == stmoderste_eta ) -&gt; ( _frot_to_t_lineh == hlop_d_tstpo_dsed_ecinesa == ecedsahecedsledtase ) until ( esol'}</t>
+  </si>
+  <si>
     <t>{'section-id': 3, 'sentence-id': 0, 'sentence': 'If it needs X meters (e.g. 0.5 meters) to stop once the vehicle starts moving due to the poor vehicle control performance, the vehicle goes over the stopping position that should be strictly observed when the vehicle starts to moving in order to approach the near stop point (e.g. 0.3 meters away).', 'tl': 'always ( itXmeters &gt; 4.0 and itXmeters &lt; 5.05 ) until [ 0 : epovehicleiceovgdue == porolecececontre ) -&gt; ( erflocevhice &gt; st == stpoinpicineosiceitr ) until ( rise ( inloce == sesosrineictrinose ) )'}</t>
-  </si>
-  <si>
-    <t>{'section-id': 0, 'sentence-id': 0, 'sentence': 'If pointcloud is detected in a detection area defined on a map, the stop planning will be executed at the predetermined point.', 'tl': 'always ( pointcloud == adetectinedanedamap == amapstoplninexe )'}</t>
-  </si>
-  <si>
-    <t>{'section-id': 1, 'sentence-id': 0, 'sentence': 'This module is activated when there is a detection area on the target lane.', 'tl': 'always ( Thismodule == activated )'}</t>
-  </si>
-  <si>
-    <t>{'section-id': 2, 'sentence-id': 0, 'sentence': '1.Gets a detection area and stop line from map information and confirms if there is pointcloud in the detection area', 'tl': 'always ( etsadetectionar == area and stoplinma == oinformationcS ) and concoin == detrmintointr )'}</t>
-  </si>
-  <si>
-    <t>{'section-id': 2, 'sentence-id': 1, 'sentence': '2.Inserts stop point l[m] in front of the stop line', 'tl': 'always ( . 2 Insertstoplm &gt;= 0 and Insertstopl &lt;= frontstpline )'}</t>
-  </si>
-  <si>
-    <t>{'section-id': 2, 'sentence-id': 4, 'sentence': '5.If the ego vehicle has passed the pass judge point already, it doesn’t stop and pass through.', 'tl': 'always ( egovehiclep == sasedpasjudgealreadlr ) and pastst == tsthrough )'}</t>
-  </si>
-  <si>
-    <t>{'section-id': 3, 'sentence-id': 2, 'sentence': "If the vehicle is stopped within hold_stop_margin_distance meters from stop point of the module (\\_front_to_stop_line &lt; hold_stop_margin_distance), the module judges that the vehicle has already stopped for the module's stop point and plans to keep stopping current position even if the vehicle is stopped due to other factors.", 'tl': 'always ( evhiclestoped == stoped_stoped_stop_d_stargin_dstae == etancerste ) until ( not ( erstacersta == stmoderste_eta ) -&gt; ( _frot_to_t_lineh == hlop_d_tstpo_dsed_ecinesa == ecedsahecedsledtase ) until ( esol'}</t>
   </si>
 </sst>
 </file>
@@ -174,7 +174,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -185,13 +185,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -659,148 +652,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1155,10 +1148,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L20"/>
+  <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
@@ -1220,15 +1213,23 @@
       <c r="F2" t="s">
         <v>13</v>
       </c>
-      <c r="H2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I2"/>
-      <c r="J2" t="s">
-        <v>7</v>
-      </c>
-      <c r="L2" t="s">
-        <v>7</v>
+      <c r="G2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1236,29 +1237,37 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C3">
         <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I3"/>
-      <c r="J3" t="s">
-        <v>7</v>
-      </c>
-      <c r="L3" t="s">
-        <v>7</v>
+        <v>18</v>
+      </c>
+      <c r="G3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1272,23 +1281,31 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H4" t="s">
-        <v>7</v>
-      </c>
-      <c r="I4"/>
-      <c r="J4" t="s">
-        <v>7</v>
-      </c>
-      <c r="L4" t="s">
-        <v>7</v>
+        <v>22</v>
+      </c>
+      <c r="G4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4" t="s">
+        <v>23</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1302,23 +1319,31 @@
         <v>28</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F5" t="s">
-        <v>23</v>
-      </c>
-      <c r="H5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I5"/>
-      <c r="J5" t="s">
-        <v>7</v>
-      </c>
-      <c r="L5" t="s">
-        <v>7</v>
+        <v>26</v>
+      </c>
+      <c r="G5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5" t="s">
+        <v>27</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -1332,28 +1357,29 @@
         <v>29</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E6" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="F6" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G6" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="s">
         <v>7</v>
       </c>
-      <c r="J6" t="s">
-        <v>7</v>
-      </c>
-      <c r="L6" t="s">
-        <v>7</v>
+      <c r="J6"/>
+      <c r="K6" t="s">
+        <v>31</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -1367,28 +1393,28 @@
         <v>30</v>
       </c>
       <c r="D7" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E7" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F7" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H7">
         <v>1</v>
       </c>
       <c r="I7" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="J7">
         <v>1</v>
       </c>
       <c r="K7" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="L7">
         <v>1</v>
@@ -1405,22 +1431,31 @@
         <v>31</v>
       </c>
       <c r="D8" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="E8" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F8" t="s">
-        <v>34</v>
-      </c>
-      <c r="H8" t="s">
-        <v>7</v>
-      </c>
-      <c r="J8" t="s">
-        <v>7</v>
-      </c>
-      <c r="L8" t="s">
-        <v>7</v>
+        <v>38</v>
+      </c>
+      <c r="G8" t="s">
+        <v>39</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8" t="s">
+        <v>39</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8" t="s">
+        <v>39</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -1434,22 +1469,31 @@
         <v>97</v>
       </c>
       <c r="D9" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="E9" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="F9" t="s">
-        <v>37</v>
-      </c>
-      <c r="H9" t="s">
-        <v>7</v>
-      </c>
-      <c r="J9" t="s">
-        <v>7</v>
-      </c>
-      <c r="L9" t="s">
-        <v>7</v>
+        <v>42</v>
+      </c>
+      <c r="G9" t="s">
+        <v>43</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9" t="s">
+        <v>43</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9" t="s">
+        <v>43</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -1474,20 +1518,13 @@
       <c r="G10" t="s">
         <v>7</v>
       </c>
-      <c r="H10">
-        <v>2</v>
-      </c>
-      <c r="I10" t="s">
-        <v>7</v>
-      </c>
       <c r="J10">
-        <v>1</v>
-      </c>
-      <c r="K10" t="s">
-        <v>7</v>
+        <f>COUNTIF(J2:J9,0)</f>
+        <v>6</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <f>COUNTIF(L2:L9,0)</f>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -1566,7 +1603,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:8">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -1586,150 +1623,16 @@
         <v>7</v>
       </c>
       <c r="G13" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="H13">
-        <v>1</v>
-      </c>
-      <c r="I13" t="s">
-        <v>39</v>
-      </c>
-      <c r="J13">
-        <v>1</v>
-      </c>
-      <c r="K13" t="s">
-        <v>39</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14" spans="7:12">
-      <c r="G14" t="s">
-        <v>39</v>
-      </c>
+    <row r="14" spans="8:8">
       <c r="H14">
-        <v>1</v>
-      </c>
-      <c r="I14" t="s">
-        <v>40</v>
-      </c>
-      <c r="J14">
-        <v>1</v>
-      </c>
-      <c r="K14" t="s">
-        <v>40</v>
-      </c>
-      <c r="L14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="7:12">
-      <c r="G15" t="s">
-        <v>40</v>
-      </c>
-      <c r="H15">
-        <v>1</v>
-      </c>
-      <c r="I15" t="s">
-        <v>41</v>
-      </c>
-      <c r="J15">
-        <v>1</v>
-      </c>
-      <c r="K15" t="s">
-        <v>41</v>
-      </c>
-      <c r="L15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="7:12">
-      <c r="G16" t="s">
-        <v>41</v>
-      </c>
-      <c r="H16">
-        <v>1</v>
-      </c>
-      <c r="I16" t="s">
-        <v>42</v>
-      </c>
-      <c r="J16">
-        <v>1</v>
-      </c>
-      <c r="K16" t="s">
-        <v>42</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="7:12">
-      <c r="G17" t="s">
-        <v>42</v>
-      </c>
-      <c r="H17">
-        <v>1</v>
-      </c>
-      <c r="I17" t="s">
-        <v>43</v>
-      </c>
-      <c r="J17">
-        <v>1</v>
-      </c>
-      <c r="K17" t="s">
-        <v>27</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="7:12">
-      <c r="G18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H18">
-        <v>1</v>
-      </c>
-      <c r="I18" t="s">
-        <v>44</v>
-      </c>
-      <c r="J18">
-        <v>1</v>
-      </c>
-      <c r="K18" t="s">
-        <v>43</v>
-      </c>
-      <c r="L18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="7:12">
-      <c r="G19" t="s">
-        <v>44</v>
-      </c>
-      <c r="H19">
-        <v>1</v>
-      </c>
-      <c r="J19">
-        <f>SUM(J13:J18)</f>
-        <v>6</v>
-      </c>
-      <c r="K19" t="s">
-        <v>44</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="8:12">
-      <c r="H20">
-        <f>SUM(H13:H19)</f>
-        <v>7</v>
-      </c>
-      <c r="L20">
-        <f>SUM(L13:L19)</f>
-        <v>7</v>
+        <f>COUNTIF(H2:H13,0)</f>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
